--- a/3-data/output/mpox-linked-pages-classified.xlsx
+++ b/3-data/output/mpox-linked-pages-classified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve/Documents/GitHub/mpox-wiki-analysis/3-data/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECE1B4B-8A83-934D-B425-F63DC74122B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E210D-9B06-224A-81FD-7D21AEB6D2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4660" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1730,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B450"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A378" zoomScale="172" workbookViewId="0">
+      <selection activeCell="A389" sqref="A389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2110,15 +2110,15 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>417</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2126,15 +2126,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>418</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>419</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>420</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>421</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>448</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>406</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>415</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>416</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>407</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2510,15 +2510,15 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>408</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>449</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2550,15 +2550,15 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2614,23 +2614,23 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2654,15 +2654,15 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>422</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2678,15 +2678,15 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>423</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -2742,15 +2742,15 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2766,15 +2766,15 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2782,15 +2782,15 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2798,15 +2798,15 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -2814,23 +2814,23 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>424</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2862,23 +2862,23 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2894,15 +2894,15 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>425</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -2910,23 +2910,23 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>426</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -2958,23 +2958,23 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3006,15 +3006,15 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>427</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3054,15 +3054,15 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -3070,23 +3070,23 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3094,23 +3094,23 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>402</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>403</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>446</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>404</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>447</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3238,23 +3238,23 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3262,15 +3262,15 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -3286,15 +3286,15 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -3430,15 +3430,15 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>428</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -3470,15 +3470,15 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>429</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>430</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -3558,15 +3558,15 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -3590,23 +3590,23 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>431</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -3774,23 +3774,23 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -3814,23 +3814,23 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>411</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -3886,15 +3886,15 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>432</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>433</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -3974,15 +3974,15 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -4006,15 +4006,15 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -4022,15 +4022,15 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -4078,15 +4078,15 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -4118,15 +4118,15 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>304</v>
+        <v>434</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>307</v>
+        <v>409</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>308</v>
+        <v>410</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="B313">
         <v>0</v>
@@ -4246,15 +4246,15 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>315</v>
+        <v>435</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -4278,15 +4278,15 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="B318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="B320">
         <v>0</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B322">
         <v>0</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="B324">
         <v>0</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="B327">
         <v>0</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -4398,7 +4398,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="B334">
         <v>0</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="B335">
         <v>0</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="B336">
         <v>0</v>
@@ -4430,31 +4430,31 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="B339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="B344">
         <v>0</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="B345">
         <v>0</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="B347">
         <v>0</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -4526,15 +4526,15 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="B350">
         <v>0</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="B353">
         <v>0</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="B359">
         <v>0</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -4662,31 +4662,31 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>366</v>
+        <v>436</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="B368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -4718,23 +4718,23 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="B373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="B374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -4742,15 +4742,15 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="B376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>376</v>
+        <v>437</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B378">
         <v>0</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="B383">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="B385">
         <v>0</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -4830,15 +4830,15 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="B387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B389">
         <v>0</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="B395">
         <v>0</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="B403">
         <v>0</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="B406">
         <v>0</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -5014,7 +5014,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -5022,7 +5022,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -5030,15 +5030,15 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="B413">
         <v>0</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="B415">
         <v>0</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -5070,23 +5070,23 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="B417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="B418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="B419">
         <v>0</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="B420">
         <v>0</v>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="B421">
         <v>0</v>
@@ -5110,15 +5110,15 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="B422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="B424">
         <v>0</v>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -5150,15 +5150,15 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="B427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="B428">
         <v>0</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="B429">
         <v>0</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="B434">
         <v>0</v>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="B436">
         <v>0</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="B437">
         <v>0</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="B438">
         <v>0</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B439">
         <v>0</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>439</v>
+        <v>380</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="B441">
         <v>0</v>
@@ -5270,7 +5270,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="B442">
         <v>0</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>442</v>
+        <v>383</v>
       </c>
       <c r="B443">
         <v>0</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="B444">
         <v>0</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>444</v>
+        <v>385</v>
       </c>
       <c r="B445">
         <v>0</v>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>445</v>
+        <v>387</v>
       </c>
       <c r="B446">
         <v>0</v>
@@ -5310,7 +5310,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>446</v>
+        <v>388</v>
       </c>
       <c r="B447">
         <v>0</v>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>447</v>
+        <v>386</v>
       </c>
       <c r="B448">
         <v>0</v>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="B449">
         <v>0</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="B450">
         <v>0</v>

--- a/3-data/output/mpox-linked-pages-classified.xlsx
+++ b/3-data/output/mpox-linked-pages-classified.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve/Documents/GitHub/mpox-wiki-analysis/3-data/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E210D-9B06-224A-81FD-7D21AEB6D2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603D2C32-8BFD-9C49-92F3-854152C7CF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1730,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" zoomScale="172" workbookViewId="0">
-      <selection activeCell="A389" sqref="A389"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="172" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2657,7 +2657,7 @@
         <v>101</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
